--- a/data-raw/desc_funcao.xlsx
+++ b/data-raw/desc_funcao.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2.Programação e Normas\2023\PPAG 2023 e LOA 2023\Tabelas de Apoio - geração dos volumes 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_B673155B7E1682D92CC8B3728F1F5C845B914187" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$30</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -30,6 +42,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>funcao</t>
+  </si>
+  <si>
     <t>LEGISLATIVA</t>
   </si>
   <si>
@@ -115,19 +133,13 @@
   </si>
   <si>
     <t>RESERVA DE CONTINGÊNCIA</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>funcao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,258 +449,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +710,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1f47f591d2cee6122bef25da059db4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="856a76bd91320367711680b85ef754cf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -779,7 +790,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -810,7 +821,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -829,7 +840,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -857,8 +868,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -963,18 +974,26 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD420943-80F2-4479-89CB-C5541D5540A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004D06CA-9544-4BA0-AA31-E10479C264E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4F018C-C743-4B82-B860-5D1ADB04AF9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DD4324-C7F1-4A7D-8D71-A7008EDB9033}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0526B-A412-4E25-9F15-AFD9BF6B87A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A826D78-3D96-4E69-A209-AF396A472B46}"/>
 </file>
--- a/data-raw/desc_funcao.xlsx
+++ b/data-raw/desc_funcao.xlsx
@@ -710,8 +710,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -736,6 +736,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -815,6 +816,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -981,13 +987,12 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004D06CA-9544-4BA0-AA31-E10479C264E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305EE586-A9B2-4A49-9750-59E3834AA018}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data-raw/desc_funcao.xlsx
+++ b/data-raw/desc_funcao.xlsx
@@ -710,8 +710,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -737,6 +737,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -819,6 +820,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -992,7 +998,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305EE586-A9B2-4A49-9750-59E3834AA018}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{349A8D6F-7AA9-451D-8D84-87A7D6825CEB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
